--- a/medicine/Handicap/Arnulf_Erich_Stegmann/Arnulf_Erich_Stegmann.xlsx
+++ b/medicine/Handicap/Arnulf_Erich_Stegmann/Arnulf_Erich_Stegmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnulf Erich Stegmann, né le 4 mars 1912 à Darmstadt et décédé le 5 septembre 1984 à Deisenhofen près Munich (de), est un peintre allemand, fondateur et premier président de l’Association des Artistes Peignant de la Bouche et du Pied.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atteint de poliomyélite à l’âge de deux ans, Arnulf Erich Stegmann perd l’usage de ses mains. Très vite, il commence à écrire et à peindre avec la bouche avec une énergie farouche. Un véritable talent lui permet d’intégrer l’École de l’industrie du livre et du graphisme de Nuremberg. Soutenu par deux de ses professeurs, Erwin von Kormöndy et Hans Gerstacker, il obtient son diplôme.
 Soucieux de gagner sa vie et de vivre de son art, il crée sa propre maison d'édition en 1932. Elle lui permet de commercialiser des cartes comportant des reproductions de ses œuvres.
